--- a/IT_BDM/WebRoot/files/import/zmz/管理电脑统计.xlsx
+++ b/IT_BDM/WebRoot/files/import/zmz/管理电脑统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8556"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -504,94 +504,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
@@ -599,13 +600,14 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
